--- a/data/COMMODITIES_FINAL.xlsx
+++ b/data/COMMODITIES_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rados\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Documents/competitions/hackatons/Hacknation2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE73F04-A637-4F19-A479-1DFDE85D34FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491B8582-518E-ED41-8E49-9493C311DE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Średnia cena za metr w WWA</t>
   </si>
   <si>
-    <t>Średnia roczna cena sprzedaży energii elektrycznej na rynku konkurencyjnym [zł/MWh]</t>
-  </si>
-  <si>
     <t>GAZ ZIEMNY_close</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Średnia roczna cena sprzedaży energii elektrycznej na rynku konkurencyjnym zł/MWh</t>
   </si>
 </sst>
 </file>
@@ -251,8 +251,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 3" xfId="1" xr:uid="{F3388FB4-6C03-46DB-A160-4B1C328500EF}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,22 +533,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED60E7D-B85A-4F1E-AE0A-0124CD153205}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,73 +578,73 @@
         <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2012</v>
       </c>
@@ -742,7 +742,7 @@
         <v>353.36</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2013</v>
       </c>
@@ -840,7 +840,7 @@
         <v>344.98</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -938,7 +938,7 @@
         <v>347.39</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>363.36</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>355.15</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>358.01</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2018</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>389.86</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2019</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>397.24</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>402.43</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2021</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>415.26</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2022</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>470.51</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2023</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>518.1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2024</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>545.16</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>512.30730769231013</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2026</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>527.68296703296801</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2027</v>
       </c>
